--- a/data/trans_camb/P8_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-2,42</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>-0,71</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>-1,13</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 4,48</t>
+          <t>-3,74; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,32</t>
+          <t>-2,66; 8,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,4</t>
+          <t>-2,65; 8,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,8</t>
+          <t>-2,17; 7,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 0,0</t>
+          <t>-8,3; 1,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 1,79</t>
+          <t>-5,05; 3,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 2,01</t>
+          <t>-11,28; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 2,59</t>
+          <t>-10,14; 2,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,07</t>
+          <t>-10,44; 2,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,88</t>
+          <t>-11,08; 2,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,65</t>
+          <t>-2,37; 3,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,84</t>
+          <t>-3,43; 3,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 1,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 3,85</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 3,96</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 4,1</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 1,32</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 2,42</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>55,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-57,65%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-25,45%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-45,86%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-36,49%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>-37,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-43,71%</t>
+          <t>-36,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-29,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-5,02%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>-9,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-43,98%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>34,13%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-45,38%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-20,48%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,88; —</t>
+          <t>-100,0; 397,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 563,42</t>
+          <t>-100,0; 820,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 521,12</t>
+          <t>-100,0; 801,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 503,71</t>
+          <t>-67,24; 689,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 170,85</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 142,64</t>
-        </is>
-      </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-87,18; 163,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-87,75; 319,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-87,48; 399,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 179,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-86,34; 442,0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-84,93; 443,84</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-72,93; 415,63</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-91,46; 92,52</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 2,62</t>
+          <t>-9,43; 2,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 4,9</t>
+          <t>-8,35; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 3,71</t>
+          <t>-7,97; 4,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 6,15</t>
+          <t>-6,9; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,06</t>
+          <t>-2,79; 12,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,44</t>
+          <t>-2,64; 13,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 7,37</t>
+          <t>-2,02; 5,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 9,36</t>
+          <t>-1,66; 5,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,58</t>
+          <t>0,2; 8,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,37</t>
+          <t>1,92; 11,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,58</t>
+          <t>-8,44; 2,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,29</t>
+          <t>-7,59; 5,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 2,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 4,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 4,8</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 7,06</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 5,29</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 7,53</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,42%</t>
+          <t>-32,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>-14,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>77,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>163,16%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>119,46%</t>
+          <t>79,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>163,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>268,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>-35,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-11,54%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>57,2%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>48,92%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,83; 64,88</t>
+          <t>-78,19; 66,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 104,02</t>
+          <t>-66,51; 86,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,75; 85,95</t>
+          <t>-67,74; 97,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 127,33</t>
+          <t>-61,72; 144,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,1; 591,33</t>
+          <t>-26,52; 299,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,9; 547,19</t>
+          <t>-29,67; 405,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 849,51</t>
+          <t>-69,24; 698,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,76; 1068,15</t>
+          <t>-52,24; 758,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,46; 80,65</t>
+          <t>-24,92; 1060,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 139,45</t>
+          <t>15,12; 1220,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 139,79</t>
+          <t>-71,03; 42,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-51,83; 148,14</t>
+          <t>-75,7; 199,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-62,23; 87,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-43,94; 134,96</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-35,98; 143,41</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-20,91; 225,03</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-40,62; 89,39</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-27,43; 211,45</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,18</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 5,66</t>
+          <t>-3,22; 6,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,62</t>
+          <t>-2,87; 6,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,21</t>
+          <t>-3,91; 4,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 6,26</t>
+          <t>-3,52; 5,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,59</t>
+          <t>-2,98; 8,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,74</t>
+          <t>-3,79; 7,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,43</t>
+          <t>-3,75; 0,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,83</t>
+          <t>-2,45; 2,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,49</t>
+          <t>-1,71; 3,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,16</t>
+          <t>-0,32; 6,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,92</t>
+          <t>-4,58; 3,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,24</t>
+          <t>-0,98; 6,15</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 2,59</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,11</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 3,13</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 4,23</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 4,62</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 5,49</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-54,93%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>-50,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>-14,81%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>78,47%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>33,49%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>39,54%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 113,33</t>
+          <t>-34,18; 121,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 114,8</t>
+          <t>-30,23; 121,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 84,31</t>
+          <t>-42,61; 95,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 120,33</t>
+          <t>-41,56; 103,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-91,37; 61,14</t>
+          <t>-31,19; 188,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 186,14</t>
+          <t>-39,98; 156,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 211,96</t>
+          <t>-89,32; 90,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,63; 197,36</t>
+          <t>-58,34; 191,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 73,05</t>
+          <t>-47,43; 224,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 87,68</t>
+          <t>-19,78; 405,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 80,31</t>
+          <t>-63,38; 93,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 86,95</t>
+          <t>-37,44; 506,79</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-43,01; 71,48</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-28,12; 80,63</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-30,45; 85,95</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-18,67; 110,44</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; 99,94</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; 138,97</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1892,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1494,52 +1902,82 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>0,37</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 6,06</t>
+          <t>-3,57; 5,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 7,39</t>
+          <t>-1,71; 7,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,92</t>
+          <t>0,01; 9,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 6,14</t>
+          <t>-3,56; 5,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,27</t>
+          <t>-2,31; 9,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,75</t>
+          <t>-1,98; 9,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,3</t>
+          <t>-3,3; 3,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,44</t>
+          <t>-2,88; 3,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,28</t>
+          <t>-3,36; 3,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,48</t>
+          <t>-3,25; 3,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,37</t>
+          <t>-2,3; 5,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,92</t>
+          <t>-3,1; 5,44</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 3,26</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 3,99</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 5,59</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 3,59</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 6,07</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 6,35</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,57%</t>
+          <t>63,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>39,1%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>40,01%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 109,95</t>
+          <t>-41,92; 108,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 131,71</t>
+          <t>-20,09; 152,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 178,68</t>
+          <t>-6,01; 190,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 121,47</t>
+          <t>-43,26; 118,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,68; 110,8</t>
+          <t>-25,32; 170,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 123,93</t>
+          <t>-20,39; 171,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 112,91</t>
+          <t>-51,17; 108,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 134,18</t>
+          <t>-43,34; 116,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 67,06</t>
+          <t>-47,18; 117,35</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 94,72</t>
+          <t>-50,39; 139,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 113,37</t>
+          <t>-37,8; 141,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 83,85</t>
+          <t>-41,62; 173,45</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-36,81; 75,68</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-18,63; 85,66</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 120,06</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-32,49; 79,88</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-13,15; 112,9</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-18,66; 127,41</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 9,08</t>
+          <t>-4,67; 9,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 7,93</t>
+          <t>-4,82; 8,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 7,75</t>
+          <t>-4,02; 7,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 10,89</t>
+          <t>-4,24; 9,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 8,16</t>
+          <t>-0,56; 13,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,79</t>
+          <t>-1,51; 13,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,88</t>
+          <t>-4,43; 7,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 6,41</t>
+          <t>-4,49; 7,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,44</t>
+          <t>-3,98; 8,19</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,81</t>
+          <t>-5,32; 7,59</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 5,98</t>
+          <t>-5,76; 9,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 6,54</t>
+          <t>-4,53; 9,5</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 6,61</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 5,89</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 6,62</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 6,89</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 9,62</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 9,47</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58,46%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>66,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>39,35%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>34,51%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 168,97</t>
+          <t>-51,45; 176,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 146,36</t>
+          <t>-44,64; 152,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 153,09</t>
+          <t>-39,12; 141,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 180,78</t>
+          <t>-42,82; 166,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 86,5</t>
+          <t>-7,31; 177,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 81,76</t>
+          <t>-10,03; 152,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 81,81</t>
+          <t>-30,66; 81,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 63,72</t>
+          <t>-29,52; 94,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 77,5</t>
+          <t>-27,9; 86,77</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 70,77</t>
+          <t>-37,8; 78,72</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 69,77</t>
+          <t>-34,11; 100,45</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 82,81</t>
+          <t>-31,9; 107,88</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-20,4; 84,32</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-23,15; 73,11</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-22,92; 84,58</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; 84,67</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 99,08</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 89,7</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>16,54</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>-7,06</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-3,72</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 5,06</t>
+          <t>-6,81; 5,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 5,26</t>
+          <t>-8,33; 4,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,01</t>
+          <t>-7,3; 5,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 10,54</t>
+          <t>-5,34; 10,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 9,91</t>
+          <t>-7,72; 9,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 6,77</t>
+          <t>-7,01; 8,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 9,83</t>
+          <t>-4,94; 9,72</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,16; 27,49</t>
+          <t>-6,65; 7,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,0</t>
+          <t>-3,9; 10,56</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,04</t>
+          <t>-2,03; 16,55</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 5,91</t>
+          <t>-8,02; 13,68</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 18,21</t>
+          <t>-19,41; 5,79</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 6,12</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 3,88</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 6,07</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 10,88</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 9,97</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 4,22</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-12,07%</t>
+          <t>-13,27%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-5,22%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>63,53%</t>
+          <t>-19,4%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-4,48%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>26,68%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-13,75%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 53,25</t>
+          <t>-47,41; 70,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-51,17; 60,66</t>
+          <t>-54,05; 51,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 68,01</t>
+          <t>-45,13; 68,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 118,02</t>
+          <t>-38,03; 101,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 55,51</t>
+          <t>-42,06; 111,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 41,97</t>
+          <t>-37,97; 89,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 57,7</t>
+          <t>-22,19; 57,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>23,79; 160,06</t>
+          <t>-29,86; 43,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 41,01</t>
+          <t>-17,28; 66,87</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 29,56</t>
+          <t>-9,63; 97,94</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 41,38</t>
+          <t>-26,83; 65,85</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>17,52; 122,62</t>
+          <t>-45,52; 20,27</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-21,24; 39,73</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-27,92; 29,5</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-18,73; 41,46</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 76,58</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 57,41</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-39,45; 19,49</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,33</t>
+          <t>-2,09; 2,06</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,87</t>
+          <t>-1,43; 2,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,3</t>
+          <t>-1,15; 3,26</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,94</t>
+          <t>-0,95; 3,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,35</t>
+          <t>-0,36; 5,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,35</t>
+          <t>-0,06; 5,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,06</t>
+          <t>-1,72; 2,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,29</t>
+          <t>-1,98; 2,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,59</t>
+          <t>-0,85; 3,43</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,92</t>
+          <t>0,45; 5,73</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,6</t>
+          <t>-2,09; 3,74</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,98</t>
+          <t>-4,28; 2,54</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 1,6</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 1,99</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 2,58</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 3,84</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 3,8</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 3,44</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>-4,63%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>27,75%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>17,98%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 36,07</t>
+          <t>-24,3; 32,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 45,87</t>
+          <t>-16,78; 46,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 53,66</t>
+          <t>-13,9; 50,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 62,53</t>
+          <t>-12,36; 57,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 33,77</t>
+          <t>-3,94; 69,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 33,55</t>
+          <t>-0,77; 72,4</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 43,8</t>
+          <t>-19,03; 37,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>11,57; 102,9</t>
+          <t>-22,28; 33,16</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 22,49</t>
+          <t>-9,59; 50,74</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 27,16</t>
+          <t>4,6; 82,09</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 39,23</t>
+          <t>-17,31; 41,55</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>11,37; 72,23</t>
+          <t>-30,35; 24,66</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 22,83</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 28,61</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 36,57</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 55,17</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 44,51</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 37,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
